--- a/boards/APWIKOGER-Relay-X1/PickAndPlace.xlsx
+++ b/boards/APWIKOGER-Relay-X1/PickAndPlace.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>Designator</t>
   </si>
@@ -85,10 +85,10 @@
     <t>U2</t>
   </si>
   <si>
-    <t>7.307mm</t>
-  </si>
-  <si>
-    <t>8.577mm</t>
+    <t>7.747mm</t>
+  </si>
+  <si>
+    <t>9.017mm</t>
   </si>
   <si>
     <t>PROG</t>
@@ -100,19 +100,19 @@
     <t>HDR-TH_6P-P2.54-V-F</t>
   </si>
   <si>
-    <t>-16.877mm</t>
-  </si>
-  <si>
-    <t>-9.98mm</t>
-  </si>
-  <si>
-    <t>-16.33mm</t>
+    <t>-12.7mm</t>
+  </si>
+  <si>
+    <t>-14.097mm</t>
+  </si>
+  <si>
+    <t>-6.35mm</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>CN1</t>
+    <t>WIEGAND</t>
   </si>
   <si>
     <t>MX128-2.54-10P-GN01-Cu-Y-A</t>
@@ -148,25 +148,22 @@
     <t>Level Shifter</t>
   </si>
   <si>
-    <t>level shifter footprint</t>
-  </si>
-  <si>
-    <t>-9.771mm</t>
-  </si>
-  <si>
-    <t>0.887mm</t>
-  </si>
-  <si>
-    <t>-15.24mm</t>
-  </si>
-  <si>
-    <t>8.89mm</t>
-  </si>
-  <si>
-    <t>-13.97mm</t>
-  </si>
-  <si>
-    <t>7.174mm</t>
+    <t>Level Shifter Footprint</t>
+  </si>
+  <si>
+    <t>-10.776mm</t>
+  </si>
+  <si>
+    <t>0.951mm</t>
+  </si>
+  <si>
+    <t>-17.145mm</t>
+  </si>
+  <si>
+    <t>-15.875mm</t>
+  </si>
+  <si>
+    <t>7.301mm</t>
   </si>
 </sst>
 </file>
@@ -707,10 +704,10 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>6</v>
@@ -719,7 +716,7 @@
         <v>32</v>
       </c>
       <c r="L4">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
@@ -836,13 +833,13 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
       </c>
       <c r="J7">
         <v>12</v>
